--- a/biology/Botanique/Centroplacaceae/Centroplacaceae.xlsx
+++ b/biology/Botanique/Centroplacaceae/Centroplacaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Centroplacaceae forment une famille de plantes à fleurs de l'ordre des Malpighiales.
 Ce sont des arbres dioïques à feuilles simples, dentelées et stipulées originaires d’Afrique équatoriale et d’Indo-Malaisie.
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre type Centroplacus dérivé du grec κέντρον / kentron, pointe, épine, centre, et πλάξ / plax, génitif πλακός / plakos, surface plate, en référence au disque en coupe de la fleur (et non aux trois styles).
 </t>
@@ -543,11 +557,13 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[1] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010) :
 genre Centroplacus (en) Pierre, Bull. Mens. Soc. Linn. Paris, n.s. (1899)
-Selon NCBI  (14 mai 2010)[2] et Angiosperm Phylogeny Website                        (14 mai 2010)[3] :
+Selon NCBI  (14 mai 2010) et Angiosperm Phylogeny Website                        (14 mai 2010) :
 genre Bhesa Arn.
 genre Centroplacus (en) Pierre</t>
         </is>
@@ -577,12 +593,14 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010)[1] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon World Checklist of Selected Plant Families (WCSP)  (14 mai 2010) :
 genre Centroplacus (en) Pierre, Bull. Mens. Soc. Linn. Paris, n.s. (1899)
 Centroplacus glaucinus Pierre, Bull. Mens. Soc. Linn. Paris, n.s. (1899)
-Selon NCBI  (14 mai 2010)[2] :
+Selon NCBI  (14 mai 2010) :
 genre Bhesa
 Bhesa archboldiana
 Bhesa paniculata
